--- a/旅行/埃及.xlsx
+++ b/旅行/埃及.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11180"/>
+    <workbookView windowWidth="28060" windowHeight="11280" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="埃及" sheetId="1" r:id="rId1"/>
+    <sheet name="土耳其" sheetId="2" r:id="rId2"/>
+    <sheet name="预算" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>时间</t>
   </si>
@@ -189,6 +192,349 @@
   </si>
   <si>
     <t>💰0</t>
+  </si>
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>小红书</t>
+  </si>
+  <si>
+    <t>伊斯坦布尔</t>
+  </si>
+  <si>
+    <t>▪伊斯坦布尔接机(08:00到)，入住酒店休息</t>
+  </si>
+  <si>
+    <t>✈️？</t>
+  </si>
+  <si>
+    <t>博斯普鲁斯海峡观光轮渡</t>
+  </si>
+  <si>
+    <t>🎫船票：150里拉(35rmb)，必须现金支付，现场买票即可（很多人反馈现在涨价到200里拉）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⏱️时间：90分钟，整点过5分就出发(时刻表如P2所示)
+🗺️停靠路线：老城区—亚洲区—新城区—老城区
+</t>
+  </si>
+  <si>
+    <t>喂海鸥</t>
+  </si>
+  <si>
+    <t>kadikoy街区</t>
+  </si>
+  <si>
+    <t>苏莱曼尼耶清真寺</t>
+  </si>
+  <si>
+    <t>历史背景
+苏莱曼尼耶清真寺是为纪念苏丹苏莱曼一世而建的。苏莱曼一世是奥斯曼帝国的第十位苏丹，他的统治时期（1520年—1566年）被视为帝国的黄金时代，国家在经济、文化和军事上都达到了顶峰。为了展示帝国的威力和宗教虔诚，苏莱曼一世下令建造这座清真寺。
+该清真寺的建设始于1550年，历时7年，于1557年完工。它由当时著名建筑师米马尔·西南（Mimar Sinan）设计，西南被誉为“奥斯曼帝国最伟大的建筑师”，他的许多作品都体现了奥斯曼建筑的精髓。苏莱曼尼耶清真寺被认为是他最伟大的作品之一，也是他晚期的代表作。</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67b9ba99000000002a00e6a8?xsec_token=ABbpnmSJK9lC-OGX0rKxFrkmexyAvM9cZXMYf-W0x8jmk=&amp;xsec_source=pc_search&amp;source=web_search_result_notes</t>
+  </si>
+  <si>
+    <t>大巴扎</t>
+  </si>
+  <si>
+    <t>⛰️景点
+伊斯坦布尔的必打卡之地，是世界上最古老、规模最大的有盖集市之一，已有500多年的历史。
+巴扎（Bazaar）就是集市的意思，而伊斯坦布尔的大巴扎集市，更是世界上最大的室内集市之一。集市位于旧城中心位置，建造于1461年，一共有四个大门，最主要的两个门是 Nuruosmaniye大门和Bayezid大门，在Bayezid大门的横匾上，由苏丹阿布都哈密德二世亲笔书写的"真主喜爱经商的人"。</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/675a874f00000000060389be?xsec_token=ABsOIz2LkEZ1LBx5setA_FxxCpc1D6gC1NU2lSNpS5-wU=&amp;xsec_source=pc_search&amp;source=web_search_result_notes</t>
+  </si>
+  <si>
+    <t>蓝色清真寺</t>
+  </si>
+  <si>
+    <t>🚩先说说蓝色清真寺
+✨原名苏丹艾哈迈德清真寺，耗时七年才建成，是伊斯坦布尔的地标建筑。以其独特的🔵蓝、⚪白色瓷砖装饰而闻名,被称为蓝色清真寺
+✨蓝色清真寺是伊斯坦布尔醉大的圆顶建筑，四周建有六座宣礼塔，是全世界唯1️⃣拥有六座高塔的清真寺，世界十大奇景之一
+-
+🌈蓝色清真寺亮点
+除了独特的蓝白色瓷砖和六座宣礼塔，清真寺拥有260扇大小不同的镶嵌着五颜六色玻璃的窗户，中央穹顶和四周半圆形的穹顶相互呼应，营造出一种壮丽而神圣的空间感
+-
+🔶门票：免费</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/677e49470000000020029e8c?xsec_token=AB8Lf0Ga5RNm9_Q8wctr5TmhfUyNSf36TcqBKSMAI5wMs=&amp;xsec_source=pc_search&amp;source=web_search_result_notes</t>
+  </si>
+  <si>
+    <t>圣索菲亚大教堂</t>
+  </si>
+  <si>
+    <t>🌈圣索菲亚大教堂亮点
+天主教祭坛处有一副大型马赛克画，画中圣母玛利亚抱着婴儿耶稣，是蕞具代表性的艺术品之一，还有用阿拉伯文字书写的《古兰经》段落。巨大的穹顶和内部丰富的金色+彩色马赛克等等使教堂更加庄严神圣
+-
+🔶门票：25欧
+🚇交通：乘T1线至Sultanahmet站下车，步行即可到达
+🈺开放时间：周一9:00-19:00 周二-日 9:00-17:00</t>
+  </si>
+  <si>
+    <t>托普卡帕宫</t>
+  </si>
+  <si>
+    <t>🎫 门票：1500里拉，有中文语音游览，需要压证件，驾照也可以
+‼️这个门票是包括后宫 Harem的，楼主我做功课的时候没有注意到还包括了后宫，在参观的时候也没有注意到特别的指示，据说后宫的参观口在第二庭院，需要另外排队检票
+🧭 方位：老皇宫的入口处就在圣索菲亚大教堂入口处的旁边，门口有个饮水亭，穆罕默德二世于1728年所建
+⏰ 老皇宫一共有四个庭院，我没有参观后宫也差不多用了 4个小时，所以如果不走马观花的话需要半天时间</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/667759de000000001c021543?xsec_token=ABSHzgTyCRil-Ky3KvSOdsWfsOzGbeYfjQlLwZRs4ufb4=&amp;xsec_source=pc_search&amp;source=web_search_result_notes</t>
+  </si>
+  <si>
+    <t>▪✈伊斯坦布尔-飞-卡帕多奇亚</t>
+  </si>
+  <si>
+    <t>住格雷梅小镇</t>
+  </si>
+  <si>
+    <t>卡帕多奇亚</t>
+  </si>
+  <si>
+    <t>或者自费➕坐热气球、坐老爷车日出追热气球
+土耳其热气球的价格每天都在变化，要临近日期才知道价格，所以无法包含在内）</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66b0b5f300000000250339ff?xsec_token=ABDcKUa7iAKaCkloqRbYXq7op7PWWERuMzVK5p_Hr7aXg=&amp;xsec_source=pc_search&amp;source=web_search_result_notes</t>
+  </si>
+  <si>
+    <t>Rose Valley&amp;Red Valley徒步</t>
+  </si>
+  <si>
+    <t>2️⃣atv摩托车，25欧两人一车，自由的感觉，骑着车去打卡各种valley，很好玩，可以看到金色日落洒落在岩石上的美景，就是有点晒！记得穿长衣长裤戴口罩墨镜遮阳。我们去了三个spot打卡游玩，分别是love valley、red&amp;rose valley、sword valley，25欧两个人玩了两个小时包接送超值了！（图6-11）</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66dad3ee000000001e01a44e?xsec_token=ABj6JOP3TcpPhpNnvn6j9BfuQ5Y6YZldme3ahJJoV0PFk=&amp;xsec_source=pc_search&amp;source=web_search_result_notes</t>
+  </si>
+  <si>
+    <t>▪✈卡帕多奇亚-飞-安塔利亚</t>
+  </si>
+  <si>
+    <t>住安塔利亚</t>
+  </si>
+  <si>
+    <t>安塔利亚</t>
+  </si>
+  <si>
+    <t>D400公路(D400沿海公路包车的行程纯车程5小时左右)</t>
+  </si>
+  <si>
+    <t>卡什小镇</t>
+  </si>
+  <si>
+    <t>Kaputaş网红海滩</t>
+  </si>
+  <si>
+    <t>住费特希耶</t>
+  </si>
+  <si>
+    <t>费特希耶</t>
+  </si>
+  <si>
+    <t>滑翔伞(统一接送，含照片视频)</t>
+  </si>
+  <si>
+    <t>海边自由活动</t>
+  </si>
+  <si>
+    <t>下午出发机场，费特希耶飞伊斯坦布尔</t>
+  </si>
+  <si>
+    <t>住伊斯坦布尔新欧洲区</t>
+  </si>
+  <si>
+    <t>▪伊斯坦布尔新欧洲区-加拉塔大桥-塔克西姆广场+独立大街</t>
+  </si>
+  <si>
+    <t>▪✈伊斯坦布尔飞开罗</t>
+  </si>
+  <si>
+    <t>住开罗酒店</t>
+  </si>
+  <si>
+    <t>埃及-开罗</t>
+  </si>
+  <si>
+    <t>开始埃及行程</t>
+  </si>
+  <si>
+    <t>景点门票</t>
+  </si>
+  <si>
+    <t>机票</t>
+  </si>
+  <si>
+    <t>酒店费用</t>
+  </si>
+  <si>
+    <t>包车费用</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>250里拉/90mins</t>
+  </si>
+  <si>
+    <t>kadikoy街区citywalk</t>
+  </si>
+  <si>
+    <t>住伊斯坦布尔老城区？</t>
+  </si>
+  <si>
+    <t>1000RMB</t>
+  </si>
+  <si>
+    <t>大巴扎（香料市场）</t>
+  </si>
+  <si>
+    <t>25欧</t>
+  </si>
+  <si>
+    <t>托普卡帕皇宫+后宫+教堂</t>
+  </si>
+  <si>
+    <t>2000里拉</t>
+  </si>
+  <si>
+    <t>▪✈伊斯坦布尔-飞-卡帕多奇亚（开塞利机场）</t>
+  </si>
+  <si>
+    <t>544RMB</t>
+  </si>
+  <si>
+    <t>热气球（时价）</t>
+  </si>
+  <si>
+    <t>25欧/车</t>
+  </si>
+  <si>
+    <t>▪✈卡帕多奇亚-飞-安塔利亚（安塔利亚机场）</t>
+  </si>
+  <si>
+    <t>526RMB</t>
+  </si>
+  <si>
+    <t>1000～3000RMB</t>
+  </si>
+  <si>
+    <t>35里拉</t>
+  </si>
+  <si>
+    <t>251RMB</t>
+  </si>
+  <si>
+    <t>969RMB</t>
+  </si>
+  <si>
+    <t>500RMB</t>
+  </si>
+  <si>
+    <t>2698RMB</t>
+  </si>
+  <si>
+    <t>2290RMB</t>
+  </si>
+  <si>
+    <t>5500RMB</t>
+  </si>
+  <si>
+    <t>8738人均</t>
+  </si>
+  <si>
+    <t>签证：500/人</t>
+  </si>
+  <si>
+    <t>签证</t>
+  </si>
+  <si>
+    <t>团费</t>
+  </si>
+  <si>
+    <t>机票（内飞）</t>
+  </si>
+  <si>
+    <t>自费-门票</t>
+  </si>
+  <si>
+    <t>自费-住宿</t>
+  </si>
+  <si>
+    <t>自费</t>
+  </si>
+  <si>
+    <t>土耳其-跟团</t>
+  </si>
+  <si>
+    <t>67美刀</t>
+  </si>
+  <si>
+    <t>11500RMB</t>
+  </si>
+  <si>
+    <t>滑翔伞1000RMB</t>
+  </si>
+  <si>
+    <t>热气球1000RMB</t>
+  </si>
+  <si>
+    <t>14000RMB</t>
+  </si>
+  <si>
+    <t>埃及-跟团</t>
+  </si>
+  <si>
+    <t>25每刀</t>
+  </si>
+  <si>
+    <t>8300RMB</t>
+  </si>
+  <si>
+    <t>744RMB</t>
+  </si>
+  <si>
+    <t>8600RMB</t>
+  </si>
+  <si>
+    <t>土耳其-自由行</t>
+  </si>
+  <si>
+    <t>0RMB</t>
+  </si>
+  <si>
+    <t>1321RMB</t>
+  </si>
+  <si>
+    <t>698RMB</t>
+  </si>
+  <si>
+    <t>2000RMB</t>
+  </si>
+  <si>
+    <t>6019RMB</t>
+  </si>
+  <si>
+    <t>国际机票-3程 合计</t>
+  </si>
+  <si>
+    <t>6487RMB</t>
+  </si>
+  <si>
+    <t>厦门～伊斯坦布尔</t>
+  </si>
+  <si>
+    <t>伊斯坦布尔～开罗</t>
+  </si>
+  <si>
+    <t>开罗～厦门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国际机票-3程 </t>
   </si>
 </sst>
 </file>
@@ -197,11 +543,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,16 +556,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -234,14 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +595,13 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -263,11 +609,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,8 +647,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,9 +670,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +701,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -330,31 +714,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,192 +724,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -557,10 +948,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -583,20 +1045,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +1082,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,6 +1111,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -659,157 +1130,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1132,8 +1681,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1306,7 +1855,7 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1379,6 +1928,812 @@
       </c>
       <c r="D24" t="s">
         <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9.5078125" customWidth="1"/>
+    <col min="2" max="2" width="20.046875" customWidth="1"/>
+    <col min="3" max="3" width="45.8359375" customWidth="1"/>
+    <col min="4" max="4" width="20.9609375" customWidth="1"/>
+    <col min="5" max="8" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.1484375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="38.1484375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="3:11">
+      <c r="C3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" ht="17" spans="3:12">
+      <c r="C4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" ht="17" spans="3:3">
+      <c r="C5" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" ht="233" spans="1:12">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" ht="168" spans="3:12">
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" ht="247" spans="3:12">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" ht="196" spans="3:12">
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" ht="244" spans="3:12">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="3:3">
+      <c r="C11" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="51" spans="1:12">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="3:3">
+      <c r="C15" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="3:3">
+      <c r="C20" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1" display="https://www.xiaohongshu.com/explore/675a874f00000000060389be?xsec_token=ABsOIz2LkEZ1LBx5setA_FxxCpc1D6gC1NU2lSNpS5-wU=&amp;xsec_source=pc_search&amp;source=web_search_result_notes"/>
+    <hyperlink ref="L6" r:id="rId2" display="https://www.xiaohongshu.com/explore/67b9ba99000000002a00e6a8?xsec_token=ABbpnmSJK9lC-OGX0rKxFrkmexyAvM9cZXMYf-W0x8jmk=&amp;xsec_source=pc_search&amp;source=web_search_result_notes"/>
+    <hyperlink ref="L8" r:id="rId3" display="https://www.xiaohongshu.com/explore/677e49470000000020029e8c?xsec_token=AB8Lf0Ga5RNm9_Q8wctr5TmhfUyNSf36TcqBKSMAI5wMs=&amp;xsec_source=pc_search&amp;source=web_search_result_notes"/>
+    <hyperlink ref="L9" r:id="rId3" display="https://www.xiaohongshu.com/explore/677e49470000000020029e8c?xsec_token=AB8Lf0Ga5RNm9_Q8wctr5TmhfUyNSf36TcqBKSMAI5wMs=&amp;xsec_source=pc_search&amp;source=web_search_result_notes"/>
+    <hyperlink ref="L10" r:id="rId4" display="https://www.xiaohongshu.com/explore/667759de000000001c021543?xsec_token=ABSHzgTyCRil-Ky3KvSOdsWfsOzGbeYfjQlLwZRs4ufb4=&amp;xsec_source=pc_search&amp;source=web_search_result_notes"/>
+    <hyperlink ref="L13" r:id="rId5" display="https://www.xiaohongshu.com/explore/66b0b5f300000000250339ff?xsec_token=ABDcKUa7iAKaCkloqRbYXq7op7PWWERuMzVK5p_Hr7aXg=&amp;xsec_source=pc_search&amp;source=web_search_result_notes"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="12.1015625" customWidth="1"/>
+    <col min="3" max="3" width="49.0859375" customWidth="1"/>
+    <col min="4" max="4" width="13.1484375" customWidth="1"/>
+    <col min="7" max="7" width="14.703125" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="12" customFormat="1" ht="17" spans="1:8">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" s="12" customFormat="1" ht="17" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="31" spans="3:4">
+      <c r="C3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="17" spans="3:6">
+      <c r="C6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="17" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="17" spans="3:5">
+      <c r="C12" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="17" spans="3:6">
+      <c r="C13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="17" spans="1:4">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" ht="17" spans="3:5">
+      <c r="C16" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="17" spans="3:6">
+      <c r="C17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" ht="31" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="1" ht="17" spans="3:6">
+      <c r="C21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="17" spans="1:4">
+      <c r="A22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="17" spans="3:4">
+      <c r="C23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="17" spans="3:5">
+      <c r="C24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" s="12" customFormat="1" ht="17" spans="3:6">
+      <c r="C25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" s="12" customFormat="1" ht="17" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" s="12" customFormat="1" ht="17" spans="3:5">
+      <c r="C27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" s="12" customFormat="1" ht="17" spans="3:6">
+      <c r="C28" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" s="12" customFormat="1" ht="17" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="21.2265625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.9296875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" customWidth="1"/>
+    <col min="7" max="7" width="13.4140625" customWidth="1"/>
+    <col min="8" max="8" width="13.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
